--- a/Stocks/BANCOINDIA.xlsx
+++ b/Stocks/BANCOINDIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>230.9</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>222.26550237555858</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>225.27975661865781</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>16.773649905016015</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0.30000000000001137</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>3.8499999999999943</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>7.7922077922080987E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>227.9760329400649</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>0.20800698130662454</v>
       </c>
       <c r="Y67">
         <v>2.086451058152762</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>219.25</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>218.25</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>217.75</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>217.3</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>209</v>
+      </c>
+      <c r="D83">
+        <v>211.95</v>
+      </c>
+      <c r="E83">
+        <v>206.55</v>
+      </c>
+      <c r="F83">
+        <v>208.35</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>208.95000000000002</v>
+      </c>
+      <c r="H83">
+        <v>208.01244199883593</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>212.01975540295103</v>
+      </c>
+      <c r="K83">
+        <v>206.14854859712139</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>47.785467911057275</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333159</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>210.15632136355563</v>
+      </c>
+      <c r="W83">
+        <v>215.35625180529439</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.1999304417387577</v>
+      </c>
+      <c r="Y83">
+        <v>-4.7436922271649964</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>207.45</v>
+      </c>
+      <c r="D84">
+        <v>211.45</v>
+      </c>
+      <c r="E84">
+        <v>205</v>
+      </c>
+      <c r="F84">
+        <v>209.6</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>208.68333333333331</v>
+      </c>
+      <c r="H84">
+        <v>208.3478876660846</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>211.89314309118413</v>
+      </c>
+      <c r="K84">
+        <v>205.89331557553885</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>53.142082537625967</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>6.4499999999999886</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.71317829457364379</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>210.07073346147016</v>
+      </c>
+      <c r="W84">
+        <v>214.92986278268</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-4.8591293212098492</v>
+      </c>
+      <c r="Y84">
+        <v>-4.7667796459739673</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>213</v>
+      </c>
+      <c r="D85">
+        <v>213.6</v>
+      </c>
+      <c r="E85">
+        <v>210.65</v>
+      </c>
+      <c r="F85">
+        <v>213.25</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>212.5</v>
+      </c>
+      <c r="H85">
+        <v>210.4239438330423</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>212.27244462647656</v>
+      </c>
+      <c r="K85">
+        <v>206.95035655875245</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>65.90783584697013</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.88135593220339126</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>210.55985139047473</v>
+      </c>
+      <c r="W85">
+        <v>214.80542850248148</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-4.2455771120067425</v>
+      </c>
+      <c r="Y85">
+        <v>-4.662539139180522</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>211.6</v>
+      </c>
+      <c r="D86">
+        <v>217</v>
+      </c>
+      <c r="E86">
+        <v>211.5</v>
+      </c>
+      <c r="F86">
+        <v>214</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>214.16666666666666</v>
+      </c>
+      <c r="H86">
+        <v>212.29530524985449</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>213.32301248725955</v>
+      </c>
+      <c r="K86">
+        <v>207.96138843458525</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>68.137414945490065</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>211.08910502270939</v>
+      </c>
+      <c r="W86">
+        <v>214.74576713192729</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-3.6566621092179048</v>
+      </c>
+      <c r="Y86">
+        <v>-4.4613637331879987</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>217.6</v>
+      </c>
+      <c r="D87">
+        <v>219</v>
+      </c>
+      <c r="E87">
+        <v>215</v>
+      </c>
+      <c r="F87">
+        <v>215.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>216.63333333333333</v>
+      </c>
+      <c r="H87">
+        <v>214.46431929159391</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>214.58456526786853</v>
+      </c>
+      <c r="K87">
+        <v>209.52552433801074</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>73.603923607703337</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.22500000000000142</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>211.82924271152334</v>
+      </c>
+      <c r="W87">
+        <v>214.83126586289563</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-3.002023151372299</v>
+      </c>
+      <c r="Y87">
+        <v>-4.1694956168248591</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>216.3</v>
+      </c>
+      <c r="D88">
+        <v>219.45</v>
+      </c>
+      <c r="E88">
+        <v>211</v>
+      </c>
+      <c r="F88">
+        <v>216.3</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>215.58333333333334</v>
+      </c>
+      <c r="H88">
+        <v>215.02382631246363</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>215.66577298611998</v>
+      </c>
+      <c r="K88">
+        <v>209.85318559623059</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>74.74419103900884</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.62721893491124481</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>212.51705152513514</v>
+      </c>
+      <c r="W88">
+        <v>214.94006098416261</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-2.4230094590274689</v>
+      </c>
+      <c r="Y88">
+        <v>-3.8201983852653809</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>217.5</v>
+      </c>
+      <c r="D89">
+        <v>217.9</v>
+      </c>
+      <c r="E89">
+        <v>215</v>
+      </c>
+      <c r="F89">
+        <v>217.85</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>216.91666666666666</v>
+      </c>
+      <c r="H89">
+        <v>215.97024648956514</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>216.1622678780933</v>
+      </c>
+      <c r="K89">
+        <v>210.99692213040157</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>79.114348542116161</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.98275862068965125</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>213.33750513665282</v>
+      </c>
+      <c r="W89">
+        <v>215.15561202237279</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-1.8181068857199705</v>
+      </c>
+      <c r="Y89">
+        <v>-3.4197800853562987</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>217</v>
+      </c>
+      <c r="D90">
+        <v>218.75</v>
+      </c>
+      <c r="E90">
+        <v>215.5</v>
+      </c>
+      <c r="F90">
+        <v>218.35</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>217.53333333333333</v>
+      </c>
+      <c r="H90">
+        <v>216.75178991144924</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>216.73731946073923</v>
+      </c>
+      <c r="K90">
+        <v>211.99760610142346</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>80.476548090175342</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.87692307692307514</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>214.10865819255238</v>
+      </c>
+      <c r="W90">
+        <v>215.39223335404887</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.2835751614964863</v>
+      </c>
+      <c r="Y90">
+        <v>-2.9925391005843363</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>215.85000000000002</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>216.75</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>217.15</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>217.5</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>223</v>
+      </c>
+      <c r="D91">
+        <v>227.3</v>
+      </c>
+      <c r="E91">
+        <v>220</v>
+      </c>
+      <c r="F91">
+        <v>221.75</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>223.01666666666665</v>
+      </c>
+      <c r="H91">
+        <v>219.88422828905794</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>219.08458180279717</v>
+      </c>
+      <c r="K91">
+        <v>213.77591585666269</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>87.439759558342928</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.2397260273972599</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>215.28424923985202</v>
+      </c>
+      <c r="W91">
+        <v>215.86317903152673</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-0.57892979167471026</v>
+      </c>
+      <c r="Y91">
+        <v>-2.5098172388024111</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>221</v>
+      </c>
+      <c r="D92">
+        <v>223</v>
+      </c>
+      <c r="E92">
+        <v>216.55</v>
+      </c>
+      <c r="F92">
+        <v>218</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>219.18333333333331</v>
+      </c>
+      <c r="H92">
+        <v>219.53378081119564</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>219.95467473550892</v>
+      </c>
+      <c r="K92">
+        <v>214.39237899962654</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.616850064511603</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>6.4499999999999886</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.22480620155038622</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>215.70205704910555</v>
+      </c>
+      <c r="W92">
+        <v>216.02146206622845</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.3194050171229037</v>
+      </c>
+      <c r="Y92">
+        <v>-2.0717347944665097</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>218.55</v>
+      </c>
+      <c r="D93">
+        <v>222</v>
+      </c>
+      <c r="E93">
+        <v>216.95</v>
+      </c>
+      <c r="F93">
+        <v>219</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>219.31666666666669</v>
+      </c>
+      <c r="H93">
+        <v>219.42522373893115</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>220.40919146095138</v>
+      </c>
+      <c r="K93">
+        <v>214.96073922193176</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>62.713758151457874</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.4059405940594073</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>216.20943288770471</v>
+      </c>
+      <c r="W93">
+        <v>216.24209450576708</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-3.2661618062377329E-2</v>
+      </c>
+      <c r="Y93">
+        <v>-1.6639201591856831</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>220.5</v>
+      </c>
+      <c r="D94">
+        <v>224.9</v>
+      </c>
+      <c r="E94">
+        <v>217.9</v>
+      </c>
+      <c r="F94">
+        <v>223.3</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>222.03333333333333</v>
+      </c>
+      <c r="H94">
+        <v>220.72927853613226</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>221.4071489140733</v>
+      </c>
+      <c r="K94">
+        <v>215.6139082837247</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>75.663658682616017</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.77142857142857224</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>217.30028936651937</v>
+      </c>
+      <c r="W94">
+        <v>216.7649023201547</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>0.5353870463646615</v>
+      </c>
+      <c r="Y94">
+        <v>-1.2240587180756142</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>222</v>
+      </c>
+      <c r="D95">
+        <v>224.35</v>
+      </c>
+      <c r="E95">
+        <v>218.45</v>
+      </c>
+      <c r="F95">
+        <v>219.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>220.76666666666665</v>
+      </c>
+      <c r="H95">
+        <v>220.74797260139945</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>222.06111582205702</v>
+      </c>
+      <c r="K95">
+        <v>216.24415088734142</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>54.68383134618341</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.177966101694917</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>217.63870638705484</v>
+      </c>
+      <c r="W95">
+        <v>216.9675021482914</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>0.67120423876343693</v>
+      </c>
+      <c r="Y95">
+        <v>-0.84500612670780395</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>220</v>
+      </c>
+      <c r="D96">
+        <v>221.8</v>
+      </c>
+      <c r="E96">
+        <v>217.3</v>
+      </c>
+      <c r="F96">
+        <v>218</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>219.03333333333333</v>
+      </c>
+      <c r="H96">
+        <v>219.89065296736641</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>222.00309008382212</v>
+      </c>
+      <c r="K96">
+        <v>216.47878402348778</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>48.102684764771766</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.15555555555555303</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>217.69429001981564</v>
+      </c>
+      <c r="W96">
+        <v>217.0439834706402</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>0.65030654917543984</v>
+      </c>
+      <c r="Y96">
+        <v>-0.54594359153115524</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>217.45</v>
+      </c>
+      <c r="D97">
+        <v>218</v>
+      </c>
+      <c r="E97">
+        <v>214</v>
+      </c>
+      <c r="F97">
+        <v>214.35</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>215.45000000000002</v>
+      </c>
+      <c r="H97">
+        <v>217.6703264836832</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>221.11351450963943</v>
+      </c>
+      <c r="K97">
+        <v>215.92794312937937</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>35.212674584267525</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>8.7499999999998579E-2</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>217.17978386292091</v>
+      </c>
+      <c r="W97">
+        <v>216.84442913948166</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>0.33535472343925221</v>
+      </c>
+      <c r="Y97">
+        <v>-0.36968392853707377</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>217.05</v>
+      </c>
+      <c r="D98">
+        <v>222</v>
+      </c>
+      <c r="E98">
+        <v>215</v>
+      </c>
+      <c r="F98">
+        <v>217.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>218.16666666666666</v>
+      </c>
+      <c r="H98">
+        <v>217.91849657517491</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>221.31051128527511</v>
+      </c>
+      <c r="K98">
+        <v>215.72173354507285</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>49.741257710581735</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>217.22904788401001</v>
+      </c>
+      <c r="W98">
+        <v>216.89298994396449</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>0.33605794004552081</v>
+      </c>
+      <c r="Y98">
+        <v>-0.22853555482055485</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>219.4</v>
+      </c>
+      <c r="D99">
+        <v>221.9</v>
+      </c>
+      <c r="E99">
+        <v>216.85</v>
+      </c>
+      <c r="F99">
+        <v>217.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>218.9</v>
+      </c>
+      <c r="H99">
+        <v>218.40924828758745</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>221.44150877743621</v>
+      </c>
+      <c r="K99">
+        <v>215.97245942394554</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>51.676363845302788</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.21782178217821621</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>217.33996359416233</v>
+      </c>
+      <c r="W99">
+        <v>216.97128698515232</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>0.36867660901000932</v>
+      </c>
+      <c r="Y99">
+        <v>-0.10909312205444201</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>218</v>
+      </c>
+      <c r="D100">
+        <v>225.4</v>
+      </c>
+      <c r="E100">
+        <v>218</v>
+      </c>
+      <c r="F100">
+        <v>222</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>221.79999999999998</v>
+      </c>
+      <c r="H100">
+        <v>220.10462414379373</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>222.3211734935615</v>
+      </c>
+      <c r="K100">
+        <v>216.42302399640209</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>66.281695521956081</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.54054054054054013</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>218.05689227198351</v>
+      </c>
+      <c r="W100">
+        <v>217.34378424551142</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.71310802647209925</v>
+      </c>
+      <c r="Y100">
+        <v>5.5347107650866242E-2</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>224.05</v>
+      </c>
+      <c r="D101">
+        <v>226.5</v>
+      </c>
+      <c r="E101">
+        <v>217.25</v>
+      </c>
+      <c r="F101">
+        <v>222.2</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>221.98333333333335</v>
+      </c>
+      <c r="H101">
+        <v>221.04397873856354</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>223.2498016061034</v>
+      </c>
+      <c r="K101">
+        <v>216.60679644164608</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>66.899249110252285</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.53513513513513389</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>218.69429346090914</v>
+      </c>
+      <c r="W101">
+        <v>217.70350393102908</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>0.99078952988006108</v>
+      </c>
+      <c r="Y101">
+        <v>0.24243559209670523</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>221.3</v>
+      </c>
+      <c r="D102">
+        <v>221.3</v>
+      </c>
+      <c r="E102">
+        <v>215</v>
+      </c>
+      <c r="F102">
+        <v>216.25</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>217.51666666666665</v>
+      </c>
+      <c r="H102">
+        <v>219.28032270261508</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>222.81651236030265</v>
+      </c>
+      <c r="K102">
+        <v>216.24973056572472</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>39.795110133146913</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.19841269841269804</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>218.31824831307696</v>
+      </c>
+      <c r="W102">
+        <v>217.59583697317507</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.7224113399018961</v>
+      </c>
+      <c r="Y102">
+        <v>0.33843074165774339</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>216</v>
+      </c>
+      <c r="D103">
+        <v>216</v>
+      </c>
+      <c r="E103">
+        <v>206.45</v>
+      </c>
+      <c r="F103">
+        <v>211</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>211.15</v>
+      </c>
+      <c r="H103">
+        <v>215.21516135130753</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>221.30173183579095</v>
+      </c>
+      <c r="K103">
+        <v>214.07201266223032</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>27.504558001846036</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>4.5500000000000114</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>9.5500000000000114</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.47643979057591684</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>217.19236395721896</v>
+      </c>
+      <c r="W103">
+        <v>217.10725645664357</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>8.5107500575389849E-2</v>
+      </c>
+      <c r="Y103">
+        <v>0.28776609344127269</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>211.45</v>
+      </c>
+      <c r="D104">
+        <v>217.95</v>
+      </c>
+      <c r="E104">
+        <v>208.5</v>
+      </c>
+      <c r="F104">
+        <v>209.2</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>211.88333333333333</v>
+      </c>
+      <c r="H104">
+        <v>213.54924734232043</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>220.55690253894852</v>
+      </c>
+      <c r="K104">
+        <v>212.83378762617915</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>24.28953491309138</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>9.4499999999999886</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>7.407407407407296E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>215.9627695022622</v>
+      </c>
+      <c r="W104">
+        <v>216.52153375615146</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.55876425388925099</v>
+      </c>
+      <c r="Y104">
+        <v>0.11846002397516794</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
